--- a/report_folder/report_4.1.a_pk.xlsx
+++ b/report_folder/report_4.1.a_pk.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>20.5% der Karten</t>
+          <t>22.2% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Finanzfeedback an #projekte ⭐️</t>
+          <t>Finanzfeedback für FS ⭐️</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Aufstellung der Projektkoordination AS ⭐️</t>
+          <t>Organigram aktualisieren ⭐️</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Finanzfeedback für FS ⭐️</t>
+          <t>Ressorttreffen Projekte 29.06.2020 ⭐️</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Organigram aktualisieren ⭐️</t>
+          <t>Workshop Nutrición Escolar - Ernährungssicherheit ⭐️</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(7.7%)</t>
+          <t>(8.9%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -4588,11 +4588,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Laura Coordt</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -4636,11 +4636,11 @@
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Laura Coordt</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Valentin Buchenroth</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4718,11 +4718,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Valentin Buchenroth</t>
+          <t>Jonas Ullmann</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="F51" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -4739,13 +4739,8 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Marie-Sophie Braun</t>
-        </is>
-      </c>
       <c r="C52" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4753,13 +4748,13 @@
         </is>
       </c>
       <c r="F52" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Theresa Rinnert</t>
         </is>
       </c>
       <c r="F53" s="14" t="n">
@@ -4769,7 +4764,7 @@
     <row r="54">
       <c r="E54" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Lucia Irene Trepp</t>
         </is>
       </c>
       <c r="F54" s="14" t="n">
@@ -4795,7 +4790,7 @@
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4821,13 +4816,13 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="B62" s="14" t="n">
@@ -4844,8 +4839,13 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jonas Ullmann</t>
+        </is>
+      </c>
       <c r="B63" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="G74" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">

--- a/report_folder/report_4.1.a_pk.xlsx
+++ b/report_folder/report_4.1.a_pk.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>22.2% der Karten</t>
+          <t>23.4% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Jahres-Meeting 💩</t>
+          <t>Finanzfeedback für FS ⭐️</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Finanzfeedback für FS ⭐️</t>
+          <t>Ressorttreffen Projekte 29.06.2020 ⭐️</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Organigram aktualisieren ⭐️</t>
+          <t>Workshop Nutrición Escolar - Ernährungssicherheit ⭐️</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Ressorttreffen Projekte 29.06.2020 ⭐️</t>
+          <t>Stand Bolivien zu Monatsmeeting erfragen ⭐️</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Workshop Nutrición Escolar - Ernährungssicherheit ⭐️</t>
+          <t>Anfragen aus Bolivien klären 💩</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(8.9%)</t>
+          <t>(10.6%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -4588,11 +4588,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jonas Ullmann</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="F51" s="14" t="n">
@@ -4739,8 +4739,13 @@
           <t>5.</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jonas Ullmann</t>
+        </is>
+      </c>
       <c r="C52" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4754,17 +4759,17 @@
     <row r="53">
       <c r="E53" t="inlineStr">
         <is>
-          <t>Theresa Rinnert</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="F53" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="inlineStr">
         <is>
-          <t>Lucia Irene Trepp</t>
+          <t>Theresa Rinnert</t>
         </is>
       </c>
       <c r="F54" s="14" t="n">
@@ -4808,7 +4813,7 @@
         </is>
       </c>
       <c r="B61" s="14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
@@ -4872,11 +4877,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="G70" s="35" t="n">
@@ -4890,11 +4895,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">

--- a/report_folder/report_4.1.a_pk.xlsx
+++ b/report_folder/report_4.1.a_pk.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>23.4% der Karten</t>
+          <t>37.0% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14" t="n">
         <v>38</v>
-      </c>
-      <c r="B21" s="14" t="n">
-        <v>100</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Finanzfeedback für FS ⭐️</t>
+          <t>Woken up evaluieren</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Ressorttreffen Projekte 29.06.2020 ⭐️</t>
+          <t>Workshop Rollendefinition der Projektleiter bzw. Einbindung der Projektteams in die Projektkoordination ⭐️</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Workshop Nutrición Escolar - Ernährungssicherheit ⭐️</t>
+          <t>Monatsmeeting 💩</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Stand Bolivien zu Monatsmeeting erfragen ⭐️</t>
+          <t>Bildung Bleibt PL Nachfolge ⭐️</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Anfragen aus Bolivien klären 💩</t>
+          <t>Projekteteil Convenio Zusammenarbeit AS - FS</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(10.6%)</t>
+          <t>(7.4%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Valentin Buchenroth</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -4573,11 +4573,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Valentin Buchenroth</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4588,11 +4588,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Laura Coordt</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4600,33 +4600,33 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Valentin Buchenroth</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Valentin Buchenroth</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
@@ -4665,11 +4665,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Noah Brechmann</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Noah Brechmann</t>
+          <t>Valentin Buchenroth</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Valentin Buchenroth</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
@@ -4703,11 +4703,11 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Lucia Irene Trepp</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4724,13 +4724,8 @@
       <c r="C51" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Noah Brechmann</t>
-        </is>
-      </c>
       <c r="F51" s="14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4739,41 +4734,21 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Jonas Ullmann</t>
-        </is>
-      </c>
       <c r="C52" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Valentin Buchenroth</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="F52" s="14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Maria Lütticke</t>
-        </is>
-      </c>
       <c r="F53" s="14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Theresa Rinnert</t>
-        </is>
-      </c>
       <c r="F54" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4795,7 +4770,7 @@
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4803,17 +4778,12 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="B61" s="14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
@@ -4821,17 +4791,12 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Marie-Sophie Braun</t>
-        </is>
-      </c>
       <c r="B62" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
@@ -4844,13 +4809,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Jonas Ullmann</t>
-        </is>
-      </c>
       <c r="B63" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4877,7 +4837,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4885,7 +4845,7 @@
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -4895,15 +4855,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -4918,11 +4878,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Valentin Buchenroth</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="G72" s="35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -4932,25 +4892,20 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Valentin Buchenroth</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Jonas Ullmann</t>
-        </is>
-      </c>
       <c r="G74" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
